--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_16ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_16ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2027,28 +2027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>358.9040885615727</v>
+        <v>453.7005421112988</v>
       </c>
       <c r="AB2" t="n">
-        <v>491.0684077008434</v>
+        <v>620.77309757195</v>
       </c>
       <c r="AC2" t="n">
-        <v>444.2015280887131</v>
+        <v>561.5273844001968</v>
       </c>
       <c r="AD2" t="n">
-        <v>358904.0885615727</v>
+        <v>453700.5421112988</v>
       </c>
       <c r="AE2" t="n">
-        <v>491068.4077008434</v>
+        <v>620773.0975719499</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.437136672241135e-06</v>
+        <v>2.071868798738742e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.14583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>444201.5280887131</v>
+        <v>561527.3844001967</v>
       </c>
     </row>
     <row r="3">
@@ -2133,28 +2133,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>259.814661365278</v>
+        <v>337.4296306700579</v>
       </c>
       <c r="AB3" t="n">
-        <v>355.4898818938714</v>
+        <v>461.6861070274538</v>
       </c>
       <c r="AC3" t="n">
-        <v>321.5624264991024</v>
+        <v>417.6234329532738</v>
       </c>
       <c r="AD3" t="n">
-        <v>259814.661365278</v>
+        <v>337429.6306700578</v>
       </c>
       <c r="AE3" t="n">
-        <v>355489.8818938714</v>
+        <v>461686.1070274538</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.810857563247352e-06</v>
+        <v>2.610648908152515e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.78385416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>321562.4264991024</v>
+        <v>417623.4329532738</v>
       </c>
     </row>
     <row r="4">
@@ -2239,28 +2239,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>232.8622001576865</v>
+        <v>301.9291425215574</v>
       </c>
       <c r="AB4" t="n">
-        <v>318.6123354108262</v>
+        <v>413.1127729716733</v>
       </c>
       <c r="AC4" t="n">
-        <v>288.2044212945327</v>
+        <v>373.6858697266743</v>
       </c>
       <c r="AD4" t="n">
-        <v>232862.2001576865</v>
+        <v>301929.1425215574</v>
       </c>
       <c r="AE4" t="n">
-        <v>318612.3354108262</v>
+        <v>413112.7729716733</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.955808330416711e-06</v>
+        <v>2.819619270994282e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.53385416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>288204.4212945327</v>
+        <v>373685.8697266743</v>
       </c>
     </row>
     <row r="5">
@@ -2345,28 +2345,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>214.4076634211843</v>
+        <v>283.3892649304832</v>
       </c>
       <c r="AB5" t="n">
-        <v>293.362024091256</v>
+        <v>387.7456945298923</v>
       </c>
       <c r="AC5" t="n">
-        <v>265.3639642482597</v>
+        <v>350.7397896484588</v>
       </c>
       <c r="AD5" t="n">
-        <v>214407.6634211843</v>
+        <v>283389.2649304832</v>
       </c>
       <c r="AE5" t="n">
-        <v>293362.024091256</v>
+        <v>387745.6945298923</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.026182978245314e-06</v>
+        <v>2.921075896431952e-06</v>
       </c>
       <c r="AG5" t="n">
         <v>15</v>
       </c>
       <c r="AH5" t="n">
-        <v>265363.9642482597</v>
+        <v>350739.7896484588</v>
       </c>
     </row>
   </sheetData>
@@ -2642,28 +2642,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>288.3768859128426</v>
+        <v>372.4657806083011</v>
       </c>
       <c r="AB2" t="n">
-        <v>394.5699775962646</v>
+        <v>509.6241130588045</v>
       </c>
       <c r="AC2" t="n">
-        <v>356.9127727169179</v>
+        <v>460.9863029704065</v>
       </c>
       <c r="AD2" t="n">
-        <v>288376.8859128426</v>
+        <v>372465.7806083012</v>
       </c>
       <c r="AE2" t="n">
-        <v>394569.9775962646</v>
+        <v>509624.1130588045</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.658717189341729e-06</v>
+        <v>2.42829956599253e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.95833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>356912.7727169179</v>
+        <v>460986.3029704065</v>
       </c>
     </row>
     <row r="3">
@@ -2748,28 +2748,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>223.3340088990382</v>
+        <v>290.6733973390651</v>
       </c>
       <c r="AB3" t="n">
-        <v>305.5754437766188</v>
+        <v>397.712165844556</v>
       </c>
       <c r="AC3" t="n">
-        <v>276.4117523004975</v>
+        <v>359.7550749288812</v>
       </c>
       <c r="AD3" t="n">
-        <v>223334.0088990382</v>
+        <v>290673.3973390651</v>
       </c>
       <c r="AE3" t="n">
-        <v>305575.4437766188</v>
+        <v>397712.1658445559</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.001307218782152e-06</v>
+        <v>2.929838481215141e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.71614583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>276411.7523004976</v>
+        <v>359755.0749288813</v>
       </c>
     </row>
     <row r="4">
@@ -2854,28 +2854,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>213.212159205393</v>
+        <v>272.1342135989679</v>
       </c>
       <c r="AB4" t="n">
-        <v>291.7262824812875</v>
+        <v>372.3460367602921</v>
       </c>
       <c r="AC4" t="n">
-        <v>263.8843355217683</v>
+        <v>336.8098536028338</v>
       </c>
       <c r="AD4" t="n">
-        <v>213212.159205393</v>
+        <v>272134.2135989679</v>
       </c>
       <c r="AE4" t="n">
-        <v>291726.2824812874</v>
+        <v>372346.0367602921</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.087437655419732e-06</v>
+        <v>3.055930200315723e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.06510416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>263884.3355217683</v>
+        <v>336809.8536028338</v>
       </c>
     </row>
   </sheetData>
@@ -3151,28 +3151,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>184.0055519562837</v>
+        <v>245.9732696296095</v>
       </c>
       <c r="AB2" t="n">
-        <v>251.7645139385025</v>
+        <v>336.5514790818644</v>
       </c>
       <c r="AC2" t="n">
-        <v>227.7364620819996</v>
+        <v>304.431478271359</v>
       </c>
       <c r="AD2" t="n">
-        <v>184005.5519562837</v>
+        <v>245973.2696296095</v>
       </c>
       <c r="AE2" t="n">
-        <v>251764.5139385025</v>
+        <v>336551.4790818644</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.275873449111424e-06</v>
+        <v>3.52105714346954e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.41666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>227736.4620819996</v>
+        <v>304431.4782713591</v>
       </c>
     </row>
   </sheetData>
@@ -3448,28 +3448,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>213.0534544469432</v>
+        <v>277.1399271948819</v>
       </c>
       <c r="AB2" t="n">
-        <v>291.5091356292168</v>
+        <v>379.1950749387196</v>
       </c>
       <c r="AC2" t="n">
-        <v>263.6879128604916</v>
+        <v>343.0052291901977</v>
       </c>
       <c r="AD2" t="n">
-        <v>213053.4544469432</v>
+        <v>277139.9271948819</v>
       </c>
       <c r="AE2" t="n">
-        <v>291509.1356292167</v>
+        <v>379195.0749387196</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.094848731412662e-06</v>
+        <v>3.165932252576946e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>263687.9128604916</v>
+        <v>343005.2291901977</v>
       </c>
     </row>
     <row r="3">
@@ -3554,28 +3554,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>194.1465322063262</v>
+        <v>250.2968802970885</v>
       </c>
       <c r="AB3" t="n">
-        <v>265.6398505050771</v>
+        <v>342.4672339413469</v>
       </c>
       <c r="AC3" t="n">
-        <v>240.287556000822</v>
+        <v>309.7826417898685</v>
       </c>
       <c r="AD3" t="n">
-        <v>194146.5322063262</v>
+        <v>250296.8802970885</v>
       </c>
       <c r="AE3" t="n">
-        <v>265639.8505050771</v>
+        <v>342467.2339413469</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.226050651467915e-06</v>
+        <v>3.364216923004122e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>240287.556000822</v>
+        <v>309782.6417898685</v>
       </c>
     </row>
   </sheetData>
@@ -3851,28 +3851,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>176.6875747703655</v>
+        <v>244.5461977954917</v>
       </c>
       <c r="AB2" t="n">
-        <v>241.7517347063661</v>
+        <v>334.5988964404596</v>
       </c>
       <c r="AC2" t="n">
-        <v>218.6792884467512</v>
+        <v>302.6652473767822</v>
       </c>
       <c r="AD2" t="n">
-        <v>176687.5747703655</v>
+        <v>244546.1977954917</v>
       </c>
       <c r="AE2" t="n">
-        <v>241751.7347063661</v>
+        <v>334598.8964404595</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.283121449190106e-06</v>
+        <v>3.608446030938398e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.96354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>218679.2884467512</v>
+        <v>302665.2473767822</v>
       </c>
     </row>
   </sheetData>
@@ -4148,28 +4148,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>307.4800299008646</v>
+        <v>392.0512642246757</v>
       </c>
       <c r="AB2" t="n">
-        <v>420.7077419719092</v>
+        <v>536.4218357932837</v>
       </c>
       <c r="AC2" t="n">
-        <v>380.5559855451338</v>
+        <v>485.226488657947</v>
       </c>
       <c r="AD2" t="n">
-        <v>307480.0299008646</v>
+        <v>392051.2642246757</v>
       </c>
       <c r="AE2" t="n">
-        <v>420707.7419719092</v>
+        <v>536421.8357932837</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.599906313056645e-06</v>
+        <v>2.332481477343404e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.47916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>380555.9855451338</v>
+        <v>485226.4886579469</v>
       </c>
     </row>
     <row r="3">
@@ -4254,28 +4254,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>230.5765971117469</v>
+        <v>306.6735592745695</v>
       </c>
       <c r="AB3" t="n">
-        <v>315.4850724896833</v>
+        <v>419.6042932820392</v>
       </c>
       <c r="AC3" t="n">
-        <v>285.3756199574416</v>
+        <v>379.557848449525</v>
       </c>
       <c r="AD3" t="n">
-        <v>230576.5971117469</v>
+        <v>306673.5592745694</v>
       </c>
       <c r="AE3" t="n">
-        <v>315485.0724896833</v>
+        <v>419604.2932820392</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.949229999591007e-06</v>
+        <v>2.841755690332815e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.98958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>285375.6199574416</v>
+        <v>379557.848449525</v>
       </c>
     </row>
     <row r="4">
@@ -4360,28 +4360,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>215.6656249874957</v>
+        <v>274.9849930631317</v>
       </c>
       <c r="AB4" t="n">
-        <v>295.0832226036298</v>
+        <v>376.2465989906748</v>
       </c>
       <c r="AC4" t="n">
-        <v>266.9208939903305</v>
+        <v>340.3381516484222</v>
       </c>
       <c r="AD4" t="n">
-        <v>215665.6249874957</v>
+        <v>274984.9930631317</v>
       </c>
       <c r="AE4" t="n">
-        <v>295083.2226036299</v>
+        <v>376246.5989906748</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.073161180065145e-06</v>
+        <v>3.022433259114303e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.02604166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>266920.8939903305</v>
+        <v>340338.1516484222</v>
       </c>
     </row>
     <row r="5">
@@ -4466,28 +4466,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>216.2130339217825</v>
+        <v>275.5324019974185</v>
       </c>
       <c r="AB5" t="n">
-        <v>295.8322116574984</v>
+        <v>376.9955880445437</v>
       </c>
       <c r="AC5" t="n">
-        <v>267.5984005801108</v>
+        <v>341.0156582382027</v>
       </c>
       <c r="AD5" t="n">
-        <v>216213.0339217825</v>
+        <v>275532.4019974185</v>
       </c>
       <c r="AE5" t="n">
-        <v>295832.2116574984</v>
+        <v>376995.5880445437</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.072132209074531e-06</v>
+        <v>3.020933136415402e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.0390625</v>
       </c>
       <c r="AH5" t="n">
-        <v>267598.4005801108</v>
+        <v>341015.6582382027</v>
       </c>
     </row>
   </sheetData>
@@ -4763,28 +4763,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>180.3922044059516</v>
+        <v>239.7898489082806</v>
       </c>
       <c r="AB2" t="n">
-        <v>246.8205724104972</v>
+        <v>328.091050057677</v>
       </c>
       <c r="AC2" t="n">
-        <v>223.2643633945601</v>
+        <v>296.7785007189507</v>
       </c>
       <c r="AD2" t="n">
-        <v>180392.2044059516</v>
+        <v>239789.8489082806</v>
       </c>
       <c r="AE2" t="n">
-        <v>246820.5724104972</v>
+        <v>328091.050057677</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.26253338698827e-06</v>
+        <v>3.625109949794146e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>223264.3633945601</v>
+        <v>296778.5007189508</v>
       </c>
     </row>
   </sheetData>
@@ -5060,28 +5060,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>249.7533023886608</v>
+        <v>323.6816255858278</v>
       </c>
       <c r="AB2" t="n">
-        <v>341.7234866660716</v>
+        <v>442.875479952032</v>
       </c>
       <c r="AC2" t="n">
-        <v>309.1098767106894</v>
+        <v>400.6080657250493</v>
       </c>
       <c r="AD2" t="n">
-        <v>249753.3023886608</v>
+        <v>323681.6255858278</v>
       </c>
       <c r="AE2" t="n">
-        <v>341723.4866660716</v>
+        <v>442875.479952032</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.859257869720373e-06</v>
+        <v>2.760706399563731e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>309109.8767106894</v>
+        <v>400608.0657250493</v>
       </c>
     </row>
     <row r="3">
@@ -5166,28 +5166,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>203.8307486293902</v>
+        <v>261.463327891754</v>
       </c>
       <c r="AB3" t="n">
-        <v>278.8902226525823</v>
+        <v>357.7456601694298</v>
       </c>
       <c r="AC3" t="n">
-        <v>252.2733312275876</v>
+        <v>323.6029164620462</v>
       </c>
       <c r="AD3" t="n">
-        <v>203830.7486293902</v>
+        <v>261463.327891754</v>
       </c>
       <c r="AE3" t="n">
-        <v>278890.2226525823</v>
+        <v>357745.6601694297</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.154912063578014e-06</v>
+        <v>3.199706518016047e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.02604166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>252273.3312275876</v>
+        <v>323602.9164620462</v>
       </c>
     </row>
     <row r="4">
@@ -5272,28 +5272,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>195.396438703502</v>
+        <v>261.176800424716</v>
       </c>
       <c r="AB4" t="n">
-        <v>267.3500277164951</v>
+        <v>357.3536206483286</v>
       </c>
       <c r="AC4" t="n">
-        <v>241.8345162994316</v>
+        <v>323.248292642608</v>
       </c>
       <c r="AD4" t="n">
-        <v>195396.438703502</v>
+        <v>261176.800424716</v>
       </c>
       <c r="AE4" t="n">
-        <v>267350.0277164951</v>
+        <v>357353.6206483286</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.161927755488806e-06</v>
+        <v>3.210123720422943e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.98697916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>241834.5162994316</v>
+        <v>323248.292642608</v>
       </c>
     </row>
   </sheetData>
@@ -5569,28 +5569,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>278.2899788297636</v>
+        <v>353.4312825785634</v>
       </c>
       <c r="AB2" t="n">
-        <v>380.7686263222622</v>
+        <v>483.5802731117303</v>
       </c>
       <c r="AC2" t="n">
-        <v>344.4286030381882</v>
+        <v>437.428050555122</v>
       </c>
       <c r="AD2" t="n">
-        <v>278289.9788297637</v>
+        <v>353431.2825785634</v>
       </c>
       <c r="AE2" t="n">
-        <v>380768.6263222622</v>
+        <v>483580.2731117303</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.720103889247319e-06</v>
+        <v>2.529313827286716e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.45052083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>344428.6030381882</v>
+        <v>437428.050555122</v>
       </c>
     </row>
     <row r="3">
@@ -5675,28 +5675,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>215.5425302387338</v>
+        <v>282.2399870113178</v>
       </c>
       <c r="AB3" t="n">
-        <v>294.9147989378168</v>
+        <v>386.1732017783268</v>
       </c>
       <c r="AC3" t="n">
-        <v>266.7685444427985</v>
+        <v>349.3173733980952</v>
       </c>
       <c r="AD3" t="n">
-        <v>215542.5302387338</v>
+        <v>282239.9870113178</v>
       </c>
       <c r="AE3" t="n">
-        <v>294914.7989378168</v>
+        <v>386173.2017783268</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.065314206957272e-06</v>
+        <v>3.036925742685555e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.36458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>266768.5444427985</v>
+        <v>349317.3733980953</v>
       </c>
     </row>
     <row r="4">
@@ -5781,28 +5781,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>210.0747961230915</v>
+        <v>268.584428483172</v>
       </c>
       <c r="AB4" t="n">
-        <v>287.4336039013941</v>
+        <v>367.4890641593936</v>
       </c>
       <c r="AC4" t="n">
-        <v>260.0013441607264</v>
+        <v>332.4164236501612</v>
       </c>
       <c r="AD4" t="n">
-        <v>210074.7961230915</v>
+        <v>268584.428483172</v>
       </c>
       <c r="AE4" t="n">
-        <v>287433.6039013941</v>
+        <v>367489.0641593937</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.113163935361779e-06</v>
+        <v>3.107286015946953e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.02604166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>260001.3441607264</v>
+        <v>332416.4236501612</v>
       </c>
     </row>
   </sheetData>
@@ -6078,28 +6078,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>338.3782176914079</v>
+        <v>432.6948241284572</v>
       </c>
       <c r="AB2" t="n">
-        <v>462.9840056387709</v>
+        <v>592.0321475209522</v>
       </c>
       <c r="AC2" t="n">
-        <v>418.7974619427388</v>
+        <v>535.5294302838895</v>
       </c>
       <c r="AD2" t="n">
-        <v>338378.2176914079</v>
+        <v>432694.8241284572</v>
       </c>
       <c r="AE2" t="n">
-        <v>462984.0056387709</v>
+        <v>592032.1475209522</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.489164112814877e-06</v>
+        <v>2.1544816963334e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.57291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>418797.4619427389</v>
+        <v>535529.4302838895</v>
       </c>
     </row>
     <row r="3">
@@ -6184,28 +6184,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>252.3557674359772</v>
+        <v>320.9264777565932</v>
       </c>
       <c r="AB3" t="n">
-        <v>345.2842941564629</v>
+        <v>439.1057651435294</v>
       </c>
       <c r="AC3" t="n">
-        <v>312.3308457318236</v>
+        <v>397.1981272070422</v>
       </c>
       <c r="AD3" t="n">
-        <v>252355.7674359772</v>
+        <v>320926.4777565931</v>
       </c>
       <c r="AE3" t="n">
-        <v>345284.2941564629</v>
+        <v>439105.7651435294</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.859308201778959e-06</v>
+        <v>2.689995987751361e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.47135416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>312330.8457318236</v>
+        <v>397198.1272070422</v>
       </c>
     </row>
     <row r="4">
@@ -6290,28 +6290,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>226.3865129342108</v>
+        <v>294.8718824002548</v>
       </c>
       <c r="AB4" t="n">
-        <v>309.7520144645136</v>
+        <v>403.4567183293641</v>
       </c>
       <c r="AC4" t="n">
-        <v>280.1897169437948</v>
+        <v>364.9513753870694</v>
       </c>
       <c r="AD4" t="n">
-        <v>226386.5129342108</v>
+        <v>294871.8824002548</v>
       </c>
       <c r="AE4" t="n">
-        <v>309752.0144645136</v>
+        <v>403456.7183293641</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.995700604761719e-06</v>
+        <v>2.887324766504853e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.3515625</v>
       </c>
       <c r="AH4" t="n">
-        <v>280189.7169437948</v>
+        <v>364951.3753870694</v>
       </c>
     </row>
     <row r="5">
@@ -6396,28 +6396,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>222.4448177415094</v>
+        <v>282.5188737083674</v>
       </c>
       <c r="AB5" t="n">
-        <v>304.3588132065432</v>
+        <v>386.5547868608427</v>
       </c>
       <c r="AC5" t="n">
-        <v>275.3112352444779</v>
+        <v>349.662540535894</v>
       </c>
       <c r="AD5" t="n">
-        <v>222444.8177415094</v>
+        <v>282518.8737083674</v>
       </c>
       <c r="AE5" t="n">
-        <v>304358.8132065432</v>
+        <v>386554.7868608427</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.026287136394907e-06</v>
+        <v>2.931576519546001e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.1171875</v>
       </c>
       <c r="AH5" t="n">
-        <v>275311.2352444779</v>
+        <v>349662.540535894</v>
       </c>
     </row>
   </sheetData>
@@ -6693,28 +6693,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>222.5166220484157</v>
+        <v>287.1978445679894</v>
       </c>
       <c r="AB2" t="n">
-        <v>304.4570590270349</v>
+        <v>392.9567612126033</v>
       </c>
       <c r="AC2" t="n">
-        <v>275.4001046217508</v>
+        <v>355.4535194407499</v>
       </c>
       <c r="AD2" t="n">
-        <v>222516.6220484157</v>
+        <v>287197.8445679893</v>
       </c>
       <c r="AE2" t="n">
-        <v>304457.0590270349</v>
+        <v>392956.7612126034</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.010265278636823e-06</v>
+        <v>3.018784439057321e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>275400.1046217508</v>
+        <v>355453.5194407499</v>
       </c>
     </row>
     <row r="3">
@@ -6799,28 +6799,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>197.2063873895139</v>
+        <v>253.8771415304567</v>
       </c>
       <c r="AB3" t="n">
-        <v>269.8264793579959</v>
+        <v>347.3659053108169</v>
       </c>
       <c r="AC3" t="n">
-        <v>244.07461887199</v>
+        <v>314.2137908391662</v>
       </c>
       <c r="AD3" t="n">
-        <v>197206.3873895139</v>
+        <v>253877.1415304567</v>
       </c>
       <c r="AE3" t="n">
-        <v>269826.4793579959</v>
+        <v>347365.9053108168</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.204961444815495e-06</v>
+        <v>3.311156676219398e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.02604166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>244074.61887199</v>
+        <v>314213.7908391662</v>
       </c>
     </row>
   </sheetData>
@@ -7096,28 +7096,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>187.763526809399</v>
+        <v>250.4584705454495</v>
       </c>
       <c r="AB2" t="n">
-        <v>256.9063409226819</v>
+        <v>342.6883288480128</v>
       </c>
       <c r="AC2" t="n">
-        <v>232.38756031541</v>
+        <v>309.982635708951</v>
       </c>
       <c r="AD2" t="n">
-        <v>187763.526809399</v>
+        <v>250458.4705454495</v>
       </c>
       <c r="AE2" t="n">
-        <v>256906.3409226818</v>
+        <v>342688.3288480128</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.256165775003612e-06</v>
+        <v>3.460386922350012e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.29947916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>232387.56031541</v>
+        <v>309982.635708951</v>
       </c>
     </row>
     <row r="3">
@@ -7202,28 +7202,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>187.89242943591</v>
+        <v>250.5873731719604</v>
       </c>
       <c r="AB3" t="n">
-        <v>257.0827111830566</v>
+        <v>342.8646991083876</v>
       </c>
       <c r="AC3" t="n">
-        <v>232.5470980456719</v>
+        <v>310.1421734392129</v>
       </c>
       <c r="AD3" t="n">
-        <v>187892.42943591</v>
+        <v>250587.3731719604</v>
       </c>
       <c r="AE3" t="n">
-        <v>257082.7111830566</v>
+        <v>342864.6991083876</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.260991401044258e-06</v>
+        <v>3.467788210601171e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.2734375</v>
       </c>
       <c r="AH3" t="n">
-        <v>232547.0980456719</v>
+        <v>310142.1734392128</v>
       </c>
     </row>
   </sheetData>
@@ -12144,28 +12144,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>180.3994176810757</v>
+        <v>241.7454984018061</v>
       </c>
       <c r="AB2" t="n">
-        <v>246.8304419317492</v>
+        <v>330.7668559718838</v>
       </c>
       <c r="AC2" t="n">
-        <v>223.2732909825557</v>
+        <v>299.1989314722236</v>
       </c>
       <c r="AD2" t="n">
-        <v>180399.4176810757</v>
+        <v>241745.4984018061</v>
       </c>
       <c r="AE2" t="n">
-        <v>246830.4419317492</v>
+        <v>330766.8559718839</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.284447013883334e-06</v>
+        <v>3.569403397640279e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.63802083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>223273.2909825557</v>
+        <v>299198.9314722237</v>
       </c>
     </row>
   </sheetData>
@@ -12441,28 +12441,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>183.9472875183574</v>
+        <v>249.4025007502466</v>
       </c>
       <c r="AB2" t="n">
-        <v>251.6847939640861</v>
+        <v>341.2435043881175</v>
       </c>
       <c r="AC2" t="n">
-        <v>227.6643504700538</v>
+        <v>308.6757032676837</v>
       </c>
       <c r="AD2" t="n">
-        <v>183947.2875183574</v>
+        <v>249402.5007502466</v>
       </c>
       <c r="AE2" t="n">
-        <v>251684.7939640861</v>
+        <v>341243.5043881175</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.189728673282694e-06</v>
+        <v>3.568548556803953e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>227664.3504700538</v>
+        <v>308675.7032676837</v>
       </c>
     </row>
   </sheetData>
@@ -12738,28 +12738,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>259.9189224433961</v>
+        <v>342.7201971264649</v>
       </c>
       <c r="AB2" t="n">
-        <v>355.6325365006268</v>
+        <v>468.924893456429</v>
       </c>
       <c r="AC2" t="n">
-        <v>321.691466350406</v>
+        <v>424.1713597651682</v>
       </c>
       <c r="AD2" t="n">
-        <v>259918.9224433961</v>
+        <v>342720.1971264649</v>
       </c>
       <c r="AE2" t="n">
-        <v>355632.5365006268</v>
+        <v>468924.893456429</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.784815067138191e-06</v>
+        <v>2.63685152025156e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.95572916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>321691.4663504059</v>
+        <v>424171.3597651682</v>
       </c>
     </row>
     <row r="3">
@@ -12844,28 +12844,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>208.693163643808</v>
+        <v>266.7736226269099</v>
       </c>
       <c r="AB3" t="n">
-        <v>285.5431933899162</v>
+        <v>365.0114396997396</v>
       </c>
       <c r="AC3" t="n">
-        <v>258.2913517752555</v>
+        <v>330.1752601915688</v>
       </c>
       <c r="AD3" t="n">
-        <v>208693.163643808</v>
+        <v>266773.6226269099</v>
       </c>
       <c r="AE3" t="n">
-        <v>285543.1933899162</v>
+        <v>365011.4396997396</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.12076809148634e-06</v>
+        <v>3.133182069727439e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.1171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>258291.3517752555</v>
+        <v>330175.2601915688</v>
       </c>
     </row>
     <row r="4">
@@ -12950,28 +12950,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>207.15460719794</v>
+        <v>265.2350661810419</v>
       </c>
       <c r="AB4" t="n">
-        <v>283.4380725843607</v>
+        <v>362.9063188941831</v>
       </c>
       <c r="AC4" t="n">
-        <v>256.387140744826</v>
+        <v>328.271049161139</v>
       </c>
       <c r="AD4" t="n">
-        <v>207154.60719794</v>
+        <v>265235.0661810419</v>
       </c>
       <c r="AE4" t="n">
-        <v>283438.0725843607</v>
+        <v>362906.3188941831</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.132708382913048e-06</v>
+        <v>3.150822427084599e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.02604166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>256387.140744826</v>
+        <v>328271.0491611391</v>
       </c>
     </row>
   </sheetData>
@@ -13247,28 +13247,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>327.0172068194517</v>
+        <v>412.2217838804976</v>
       </c>
       <c r="AB2" t="n">
-        <v>447.4393693513345</v>
+        <v>564.0200306469033</v>
       </c>
       <c r="AC2" t="n">
-        <v>404.7363839255414</v>
+        <v>510.1907505290469</v>
       </c>
       <c r="AD2" t="n">
-        <v>327017.2068194517</v>
+        <v>412221.7838804976</v>
       </c>
       <c r="AE2" t="n">
-        <v>447439.3693513345</v>
+        <v>564020.0306469032</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.543185980987438e-06</v>
+        <v>2.240966866942715e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.01302083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>404736.3839255414</v>
+        <v>510190.7505290469</v>
       </c>
     </row>
     <row r="3">
@@ -13353,28 +13353,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>246.275103340498</v>
+        <v>314.4217147201337</v>
       </c>
       <c r="AB3" t="n">
-        <v>336.9644612810654</v>
+        <v>430.2056613871536</v>
       </c>
       <c r="AC3" t="n">
-        <v>304.8050460290925</v>
+        <v>389.1474368618008</v>
       </c>
       <c r="AD3" t="n">
-        <v>246275.103340498</v>
+        <v>314421.7147201336</v>
       </c>
       <c r="AE3" t="n">
-        <v>336964.4612810654</v>
+        <v>430205.6613871536</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.897263750730359e-06</v>
+        <v>2.755147633286338e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.27604166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>304805.0460290925</v>
+        <v>389147.4368618008</v>
       </c>
     </row>
     <row r="4">
@@ -13459,28 +13459,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>219.7184040795949</v>
+        <v>279.4213734730951</v>
       </c>
       <c r="AB4" t="n">
-        <v>300.6284137534319</v>
+        <v>382.3166503868773</v>
       </c>
       <c r="AC4" t="n">
-        <v>271.9368598795219</v>
+        <v>345.8288858587418</v>
       </c>
       <c r="AD4" t="n">
-        <v>219718.4040795949</v>
+        <v>279421.3734730951</v>
       </c>
       <c r="AE4" t="n">
-        <v>300628.4137534319</v>
+        <v>382316.6503868772</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.045395180832523e-06</v>
+        <v>2.970259506321486e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.10416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>271936.8598795219</v>
+        <v>345828.8858587418</v>
       </c>
     </row>
     <row r="5">
@@ -13565,28 +13565,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>219.2181810024283</v>
+        <v>278.9211503959285</v>
       </c>
       <c r="AB5" t="n">
-        <v>299.9439864709683</v>
+        <v>381.6322231044134</v>
       </c>
       <c r="AC5" t="n">
-        <v>271.3177533762966</v>
+        <v>345.2097793555166</v>
       </c>
       <c r="AD5" t="n">
-        <v>219218.1810024283</v>
+        <v>278921.1503959285</v>
       </c>
       <c r="AE5" t="n">
-        <v>299943.9864709683</v>
+        <v>381632.2231044134</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.051088893712811e-06</v>
+        <v>2.978527739750127e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.06510416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>271317.7533762966</v>
+        <v>345209.7793555165</v>
       </c>
     </row>
   </sheetData>
@@ -13862,28 +13862,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>194.7243517691999</v>
+        <v>272.8259737329312</v>
       </c>
       <c r="AB2" t="n">
-        <v>266.4304487226006</v>
+        <v>373.292533493884</v>
       </c>
       <c r="AC2" t="n">
-        <v>241.0027006340768</v>
+        <v>337.6660180165882</v>
       </c>
       <c r="AD2" t="n">
-        <v>194724.3517691999</v>
+        <v>272825.9737329312</v>
       </c>
       <c r="AE2" t="n">
-        <v>266430.4487226006</v>
+        <v>373292.533493884</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.002260731281397e-06</v>
+        <v>3.337649346270289e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.81770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>241002.7006340768</v>
+        <v>337666.0180165882</v>
       </c>
     </row>
   </sheetData>
@@ -14159,28 +14159,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>195.4388975243193</v>
+        <v>258.9792253308486</v>
       </c>
       <c r="AB2" t="n">
-        <v>267.4081217482884</v>
+        <v>354.3468014547286</v>
       </c>
       <c r="AC2" t="n">
-        <v>241.8870659183659</v>
+        <v>320.5284400527479</v>
       </c>
       <c r="AD2" t="n">
-        <v>195438.8975243193</v>
+        <v>258979.2253308487</v>
       </c>
       <c r="AE2" t="n">
-        <v>267408.1217482883</v>
+        <v>354346.8014547286</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.184062232949928e-06</v>
+        <v>3.323938774579088e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.57291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>241887.065918366</v>
+        <v>320528.4400527479</v>
       </c>
     </row>
     <row r="3">
@@ -14265,28 +14265,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>191.1199294517932</v>
+        <v>246.7178057910546</v>
       </c>
       <c r="AB3" t="n">
-        <v>261.4987190920372</v>
+        <v>337.5701863045703</v>
       </c>
       <c r="AC3" t="n">
-        <v>236.5416483577269</v>
+        <v>305.3529615064948</v>
       </c>
       <c r="AD3" t="n">
-        <v>191119.9294517931</v>
+        <v>246717.8057910546</v>
       </c>
       <c r="AE3" t="n">
-        <v>261498.7190920372</v>
+        <v>337570.1863045703</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.243921387352774e-06</v>
+        <v>3.41503881803545e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.15625</v>
       </c>
       <c r="AH3" t="n">
-        <v>236541.6483577269</v>
+        <v>305352.9615064948</v>
       </c>
     </row>
   </sheetData>
@@ -14562,28 +14562,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>232.1943714379121</v>
+        <v>305.605020960624</v>
       </c>
       <c r="AB2" t="n">
-        <v>317.6985826939074</v>
+        <v>418.1422720203157</v>
       </c>
       <c r="AC2" t="n">
-        <v>287.3778758544564</v>
+        <v>378.2353604450607</v>
       </c>
       <c r="AD2" t="n">
-        <v>232194.3714379121</v>
+        <v>305605.020960624</v>
       </c>
       <c r="AE2" t="n">
-        <v>317698.5826939074</v>
+        <v>418142.2720203156</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.928908113882076e-06</v>
+        <v>2.879687550999107e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.97916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>287377.8758544564</v>
+        <v>378235.3604450607</v>
       </c>
     </row>
     <row r="3">
@@ -14668,28 +14668,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>200.6961663985944</v>
+        <v>257.859803978363</v>
       </c>
       <c r="AB3" t="n">
-        <v>274.6013489564016</v>
+        <v>352.8151597747062</v>
       </c>
       <c r="AC3" t="n">
-        <v>248.3937816174969</v>
+        <v>319.1429761051004</v>
       </c>
       <c r="AD3" t="n">
-        <v>200696.1663985944</v>
+        <v>257859.803978363</v>
       </c>
       <c r="AE3" t="n">
-        <v>274601.3489564016</v>
+        <v>352815.1597747062</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.178024261090231e-06</v>
+        <v>3.25159571121956e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.0390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>248393.7816174969</v>
+        <v>319142.9761051004</v>
       </c>
     </row>
   </sheetData>
